--- a/tool/ExcelTools/Examples/07_equip.xlsx
+++ b/tool/ExcelTools/Examples/07_equip.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19330"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD408E05-76ED-4FA2-A613-80979B4089D8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6DCA2E-2924-409F-A2A9-07B1E7F59F24}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -160,7 +160,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="229">
   <si>
     <t>成长攻击</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1024,6 +1024,10 @@
   </si>
   <si>
     <t>albumDisplay</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1791,7 +1795,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="O1" sqref="O1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1905,8 +1909,12 @@
     <row r="2" spans="1:28" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>228</v>
+      </c>
       <c r="E2" s="4"/>
       <c r="F2" s="7"/>
       <c r="G2" s="7"/>
